--- a/fuentes/contenidos/grado08/guion05/Escaleta_CS_08_05_CO - modelo nuevo.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Escaleta_CS_08_05_CO - modelo nuevo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="149">
   <si>
     <t>Asignatura</t>
   </si>
@@ -393,6 +393,81 @@
   </si>
   <si>
     <t>La Revolución Industrial y el primer capitalismo</t>
+  </si>
+  <si>
+    <t>1 Los orígenes de la Revolución Industrial</t>
+  </si>
+  <si>
+    <t>1.1 La revolución agraria</t>
+  </si>
+  <si>
+    <t>1.2 La revolución demográfica</t>
+  </si>
+  <si>
+    <t>1.3 Consolidación</t>
+  </si>
+  <si>
+    <t>2 El nuevo modelo económico: el capitalismo</t>
+  </si>
+  <si>
+    <t>2.1 El capitalismo industrial</t>
+  </si>
+  <si>
+    <t>2.2 Consolidación</t>
+  </si>
+  <si>
+    <t>3 La primera Revolución Industrial (1750-1869)</t>
+  </si>
+  <si>
+    <t>3.1 El sistema fabril</t>
+  </si>
+  <si>
+    <t>3.2 La revolución de los transportes</t>
+  </si>
+  <si>
+    <t>3.3 Consolidación</t>
+  </si>
+  <si>
+    <t>4. La segunda Revolución Industrial (1869-1910)</t>
+  </si>
+  <si>
+    <t>4.1 Las nuevas fuentes de energía</t>
+  </si>
+  <si>
+    <t>4.2 Las nuevas industrias</t>
+  </si>
+  <si>
+    <t>4.3 Los nuevos sistemas de producción</t>
+  </si>
+  <si>
+    <t>4.4 Consolidación</t>
+  </si>
+  <si>
+    <t>5 Las consecuencias de la Revolución Industrial</t>
+  </si>
+  <si>
+    <t>5.1 Consolidación</t>
+  </si>
+  <si>
+    <t>6 Competencias</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Webs de referencia</t>
+  </si>
+  <si>
+    <t>Banco de contenidos</t>
   </si>
 </sst>
 </file>
@@ -625,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -662,13 +737,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,47 +817,12 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3017,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,10 +3106,10 @@
     <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="34.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9" style="59" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="15" customWidth="1"/>
     <col min="10" max="10" width="30.28515625" style="15" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="23" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" style="23" customWidth="1"/>
@@ -3047,133 +3125,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="30" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="42" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="21" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43"/>
-    </row>
-    <row r="3" spans="1:21" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="42"/>
+    </row>
+    <row r="3" spans="1:21" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="55"/>
+      <c r="D3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33">
+        <v>1</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="36"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="58">
+        <v>2</v>
+      </c>
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
       <c r="K4" s="22"/>
@@ -3192,11 +3277,14 @@
       <c r="A5" s="18"/>
       <c r="B5" s="11"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="58">
+        <v>3</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
       <c r="K5" s="22"/>
@@ -3215,11 +3303,14 @@
       <c r="A6" s="18"/>
       <c r="B6" s="11"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="58">
+        <v>4</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="14"/>
       <c r="K6" s="22"/>
@@ -3238,11 +3329,15 @@
       <c r="A7" s="18"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="16"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="58">
+        <v>5</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="14"/>
       <c r="K7" s="22"/>
@@ -3261,11 +3356,14 @@
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F8" s="16"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="58">
+        <v>6</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
       <c r="K8" s="22"/>
@@ -3284,11 +3382,14 @@
       <c r="A9" s="18"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F9" s="16"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="58">
+        <v>7</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
       <c r="K9" s="22"/>
@@ -3307,11 +3408,14 @@
       <c r="A10" s="18"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="58">
+        <v>8</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
       <c r="K10" s="22"/>
@@ -3330,11 +3434,14 @@
       <c r="A11" s="18"/>
       <c r="B11" s="11"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="58">
+        <v>9</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
       <c r="K11" s="22"/>
@@ -3353,11 +3460,14 @@
       <c r="A12" s="18"/>
       <c r="B12" s="11"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="58">
+        <v>10</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
       <c r="K12" s="22"/>
@@ -3376,11 +3486,14 @@
       <c r="A13" s="18"/>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="58">
+        <v>11</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="14"/>
       <c r="K13" s="22"/>
@@ -3399,11 +3512,15 @@
       <c r="A14" s="18"/>
       <c r="B14" s="11"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="16"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="58">
+        <v>12</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="14"/>
       <c r="K14" s="22"/>
@@ -3422,11 +3539,14 @@
       <c r="A15" s="18"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="58">
+        <v>13</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
       <c r="K15" s="22"/>
@@ -3445,11 +3565,14 @@
       <c r="A16" s="18"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="58">
+        <v>14</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="14"/>
       <c r="K16" s="22"/>
@@ -3468,11 +3591,14 @@
       <c r="A17" s="18"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="58">
+        <v>15</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="14"/>
       <c r="K17" s="22"/>
@@ -3491,11 +3617,14 @@
       <c r="A18" s="18"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="58">
+        <v>16</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="14"/>
       <c r="K18" s="22"/>
@@ -3514,11 +3643,15 @@
       <c r="A19" s="18"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="16"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="58">
+        <v>17</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
       <c r="K19" s="22"/>
@@ -3537,11 +3670,14 @@
       <c r="A20" s="18"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="58">
+        <v>18</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="14"/>
       <c r="K20" s="22"/>
@@ -3560,11 +3696,13 @@
       <c r="A21" s="18"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="16"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="13"/>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -3583,11 +3721,14 @@
       <c r="A22" s="18"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="58">
+        <v>19</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="14"/>
       <c r="K22" s="22"/>
@@ -3606,11 +3747,14 @@
       <c r="A23" s="18"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="F23" s="16"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="58">
+        <v>20</v>
+      </c>
       <c r="I23" s="13"/>
       <c r="J23" s="14"/>
       <c r="K23" s="22"/>
@@ -3629,11 +3773,12 @@
       <c r="A24" s="18"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="F24" s="16"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="13"/>
       <c r="J24" s="14"/>
       <c r="K24" s="22"/>
@@ -3652,11 +3797,14 @@
       <c r="A25" s="18"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="16"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="58">
+        <v>21</v>
+      </c>
       <c r="I25" s="13"/>
       <c r="J25" s="14"/>
       <c r="K25" s="22"/>
@@ -3675,11 +3823,14 @@
       <c r="A26" s="18"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="F26" s="16"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="58">
+        <v>22</v>
+      </c>
       <c r="I26" s="13"/>
       <c r="J26" s="14"/>
       <c r="K26" s="22"/>
@@ -3698,11 +3849,12 @@
       <c r="A27" s="18"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F27" s="16"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
       <c r="K27" s="22"/>
@@ -3721,11 +3873,14 @@
       <c r="A28" s="18"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="F28" s="16"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="58">
+        <v>23</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
       <c r="K28" s="22"/>
@@ -3748,7 +3903,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="16"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="58"/>
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
       <c r="K29" s="22"/>
@@ -3771,7 +3926,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="16"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="58"/>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
       <c r="K30" s="22"/>
@@ -3794,7 +3949,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="16"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
       <c r="K31" s="22"/>
@@ -3817,7 +3972,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="16"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="13"/>
       <c r="J32" s="14"/>
       <c r="K32" s="22"/>
@@ -3840,7 +3995,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="16"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="58"/>
       <c r="I33" s="13"/>
       <c r="J33" s="14"/>
       <c r="K33" s="22"/>
@@ -3863,7 +4018,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="16"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="58"/>
       <c r="I34" s="13"/>
       <c r="J34" s="14"/>
       <c r="K34" s="22"/>
@@ -3886,7 +4041,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="16"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="58"/>
       <c r="I35" s="13"/>
       <c r="J35" s="14"/>
       <c r="K35" s="22"/>
@@ -3909,7 +4064,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="16"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="H36" s="58"/>
       <c r="I36" s="13"/>
       <c r="J36" s="14"/>
       <c r="K36" s="22"/>
@@ -3932,7 +4087,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="16"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="H37" s="58"/>
       <c r="I37" s="13"/>
       <c r="J37" s="14"/>
       <c r="K37" s="22"/>
@@ -3955,7 +4110,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="16"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="H38" s="58"/>
       <c r="I38" s="13"/>
       <c r="J38" s="14"/>
       <c r="K38" s="22"/>
@@ -3978,7 +4133,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="16"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="H39" s="58"/>
       <c r="I39" s="13"/>
       <c r="J39" s="14"/>
       <c r="K39" s="22"/>
@@ -4001,7 +4156,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="16"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="H40" s="58"/>
       <c r="I40" s="13"/>
       <c r="J40" s="14"/>
       <c r="K40" s="22"/>
@@ -4024,7 +4179,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="16"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="H41" s="58"/>
       <c r="I41" s="13"/>
       <c r="J41" s="14"/>
       <c r="K41" s="22"/>
@@ -4226,12 +4381,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
@@ -4246,6 +4395,12 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion05/Escaleta_CS_08_05_CO - modelo nuevo.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Escaleta_CS_08_05_CO - modelo nuevo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="207">
   <si>
     <t>Asignatura</t>
   </si>
@@ -443,9 +443,6 @@
     <t>5 Las consecuencias de la Revolución Industrial</t>
   </si>
   <si>
-    <t>5.1 Consolidación</t>
-  </si>
-  <si>
     <t>6 Competencias</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>Refuerza tu aprendizaje: El nuevo modelo económico</t>
   </si>
   <si>
-    <t>Actividad sobre el modelo económico capitalista</t>
-  </si>
-  <si>
     <t>La primera Revolución Industrial</t>
   </si>
   <si>
@@ -515,9 +509,6 @@
     <t>Refuerza tu aprendizaje: La primera Revolución Industrial</t>
   </si>
   <si>
-    <t>Actividades sobre la primera Revolución Industrial (1750-1869)</t>
-  </si>
-  <si>
     <t>La segunda Revolución Industrial</t>
   </si>
   <si>
@@ -530,24 +521,12 @@
     <t>Actividad que facilita distinguir los conceptos de cártel, trust, holding, y monopolio</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La segunda Revolución Industrial. (1869-1919)</t>
-  </si>
-  <si>
-    <t>Actividades sobre la segunda Revolución Industrial</t>
-  </si>
-  <si>
     <t>Cronología: La Revolución Industrial y el primer capitalismo</t>
   </si>
   <si>
     <t>Cronología del periodo que transcurre entre 1750 y comienzos del siglo XX</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los efectos de la Revolución Industrial</t>
-  </si>
-  <si>
-    <t>Actividad sobre las consecuencias de la Revolución Industrial</t>
-  </si>
-  <si>
     <t>Actividad sobre los orígenes de la Revolución Industrial</t>
   </si>
   <si>
@@ -563,9 +542,6 @@
     <t>Mapa conceptual que sintetiza los aspectos fundamentales de las revoluciones industriales</t>
   </si>
   <si>
-    <t>Actividad que evalúa el conocimiento de …</t>
-  </si>
-  <si>
     <t>Motor que incluye actividades de respuesta abierta sobre la Revolución Industrial</t>
   </si>
   <si>
@@ -627,6 +603,45 @@
   </si>
   <si>
     <t xml:space="preserve">1 Los orígenes de la Revolución Industrial </t>
+  </si>
+  <si>
+    <t>5.3 Consolidación</t>
+  </si>
+  <si>
+    <t>5.1 Cambios en los modos de producción</t>
+  </si>
+  <si>
+    <t>5.2 Cambios sociales y políticos</t>
+  </si>
+  <si>
+    <t>Actividad sobre cambios en modos de producción</t>
+  </si>
+  <si>
+    <t>Actividad sobre cambios sociopolíticos</t>
+  </si>
+  <si>
+    <t>Actividad sobre El nuevo modelo económico</t>
+  </si>
+  <si>
+    <t>Actividades sobre La primera Revolución Industrial</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La segunda Revolución Industrial</t>
+  </si>
+  <si>
+    <t>Actividades sobre La segunda Revolución Industrial</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los efectos de la Revolución Industrial</t>
+  </si>
+  <si>
+    <t>Actividad sobre Los efectos de la Revolución Industrial</t>
+  </si>
+  <si>
+    <t>REVISAR si sirve según los cambios realizados</t>
+  </si>
+  <si>
+    <t>Actividad que evalúa el conocimiento sobre la Revolución Industrial</t>
   </si>
 </sst>
 </file>
@@ -793,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -892,6 +907,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3210,10 +3231,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,94 +3264,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="39" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="23" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -3343,12 +3364,12 @@
         <v>123</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
       <c r="G3" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H3" s="29">
         <v>1</v>
@@ -3357,7 +3378,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>19</v>
@@ -3370,28 +3391,33 @@
         <v>19</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="U3" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="29">
         <v>2</v>
@@ -3400,7 +3426,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>20</v>
@@ -3415,12 +3441,17 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E5" s="9" t="s">
         <v>125</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="29">
         <v>3</v>
@@ -3429,7 +3460,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>20</v>
@@ -3444,13 +3475,18 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="C6" s="13"/>
       <c r="E6" s="9" t="s">
         <v>126</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="29">
         <v>4</v>
@@ -3459,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>19</v>
@@ -3471,28 +3507,33 @@
         <v>19</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="D7" s="11" t="s">
         <v>127</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" s="29">
         <v>5</v>
@@ -3501,7 +3542,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>19</v>
@@ -3513,28 +3554,33 @@
         <v>19</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E8" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" s="29">
         <v>6</v>
@@ -3543,7 +3589,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>19</v>
@@ -3555,28 +3601,33 @@
         <v>19</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E9" s="9" t="s">
         <v>129</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H9" s="29">
         <v>7</v>
@@ -3585,7 +3636,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>19</v>
@@ -3597,28 +3648,33 @@
         <v>19</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" s="11" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H10" s="29">
         <v>8</v>
@@ -3627,7 +3683,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>19</v>
@@ -3639,28 +3695,33 @@
         <v>19</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E11" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H11" s="29">
         <v>9</v>
@@ -3669,7 +3730,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>19</v>
@@ -3678,34 +3739,39 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E12" s="9" t="s">
         <v>132</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H12" s="29">
         <v>10</v>
@@ -3714,7 +3780,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K12" s="23" t="s">
         <v>19</v>
@@ -3726,28 +3792,33 @@
         <v>20</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E13" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H13" s="29">
         <v>11</v>
@@ -3756,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>19</v>
@@ -3768,28 +3839,33 @@
         <v>19</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" s="11" t="s">
         <v>134</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H14" s="29">
         <v>12</v>
@@ -3798,7 +3874,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>20</v>
@@ -3810,28 +3886,33 @@
         <v>19</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="U14" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E15" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H15" s="29">
         <v>13</v>
@@ -3840,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>20</v>
@@ -3855,12 +3936,17 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E16" s="9" t="s">
         <v>136</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" s="29">
         <v>14</v>
@@ -3869,7 +3955,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>20</v>
@@ -3884,12 +3970,17 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E17" s="9" t="s">
         <v>137</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H17" s="29">
         <v>15</v>
@@ -3898,7 +3989,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>19</v>
@@ -3910,28 +4001,33 @@
         <v>19</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E18" s="9" t="s">
         <v>138</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="H18" s="29">
         <v>16</v>
@@ -3940,7 +4036,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="K18" s="23" t="s">
         <v>19</v>
@@ -3952,28 +4048,33 @@
         <v>19</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="S18" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="U18" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="D19" s="11" t="s">
         <v>139</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" s="29">
         <v>17</v>
@@ -3982,7 +4083,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>20</v>
@@ -3997,12 +4098,17 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E20" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>173</v>
+        <v>195</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="H20" s="29">
         <v>18</v>
@@ -4010,247 +4116,289 @@
       <c r="I20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" s="23" t="s">
+      <c r="J20" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="P20" s="31" t="s">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="29">
         <v>19</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="D21" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="30"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="P21" s="31"/>
+      <c r="I21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>177</v>
+        <v>194</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="H22" s="29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L22" s="23"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="23" t="s">
-        <v>54</v>
+      <c r="N22" s="23"/>
+      <c r="O22" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="E23" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" s="29">
-        <v>20</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="14" t="s">
+      <c r="Q22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K23" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="T22" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="31"/>
+    </row>
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="29">
+        <v>21</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="D24" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" s="30"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>10</v>
+        <v>142</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="H25" s="29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>179</v>
+        <v>19</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="23"/>
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
-      <c r="O25" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="P25" s="31" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="E26" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="29">
-        <v>22</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
-      <c r="P26" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="P26" s="31"/>
+    </row>
+    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E27" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="I27" s="30"/>
-      <c r="K27" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="29">
+        <v>23</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
-      <c r="P27" s="31"/>
+      <c r="O27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="E28" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="H28" s="29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" s="30" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>20</v>
@@ -4259,39 +4407,88 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
       <c r="P28" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="19"/>
       <c r="I29" s="30"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="I30" s="30"/>
-      <c r="K30" s="23"/>
+      <c r="P29" s="31"/>
+    </row>
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="29">
+        <v>25</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
+      <c r="P30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
@@ -4604,7 +4801,7 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N41</xm:sqref>
+          <xm:sqref>N22:N41 N3:N19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4622,7 +4819,7 @@
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M41</xm:sqref>
+          <xm:sqref>M22:M41 M3:M19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
